--- a/fhir/finnish-smart/StructureDefinition-fi-smart-observation.xlsx
+++ b/fhir/finnish-smart/StructureDefinition-fi-smart-observation.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$51</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="449">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-rc1</t>
+    <t>2.0.0-rc2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T22:29:11+02:00</t>
+    <t>2025-05-11T17:07:13+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ipa-obs-1:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason or value)}</t>
   </si>
   <si>
     <t>Event</t>
@@ -875,8 +878,8 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-7
-</t>
+    <t>obs-7
+ipa-obs-1</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -916,8 +919,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-6
-</t>
+    <t>obs-6
+ipa-obs-1</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1403,6 +1406,10 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1543,6 +1550,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1728,15 +1750,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.03125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1747,28 +1769,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.24609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.92578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.015625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="88.625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1899,7 +1921,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2019,7 +2041,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>92</v>
       </c>
@@ -2139,7 +2161,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>100</v>
       </c>
@@ -2257,7 +2279,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>106</v>
       </c>
@@ -2377,7 +2399,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>112</v>
       </c>
@@ -2497,7 +2519,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>121</v>
       </c>
@@ -2617,7 +2639,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>129</v>
       </c>
@@ -2737,7 +2759,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>137</v>
       </c>
@@ -2857,7 +2879,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>145</v>
       </c>
@@ -2979,7 +3001,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>150</v>
       </c>
@@ -3099,7 +3121,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>159</v>
       </c>
@@ -3219,7 +3241,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>168</v>
       </c>
@@ -3339,7 +3361,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>177</v>
       </c>
@@ -3358,7 +3380,7 @@
         <v>93</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>94</v>
@@ -3461,7 +3483,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>190</v>
       </c>
@@ -3480,7 +3502,7 @@
         <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>82</v>
@@ -3583,7 +3605,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>200</v>
       </c>
@@ -3602,7 +3624,7 @@
         <v>93</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>82</v>
@@ -3705,7 +3727,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>215</v>
       </c>
@@ -3718,13 +3740,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>82</v>
@@ -3827,7 +3849,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>225</v>
       </c>
@@ -3947,7 +3969,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>231</v>
       </c>
@@ -4069,7 +4091,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>242</v>
       </c>
@@ -4088,7 +4110,7 @@
         <v>93</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>82</v>
@@ -4191,7 +4213,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>253</v>
       </c>
@@ -4311,7 +4333,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>261</v>
       </c>
@@ -4431,7 +4453,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>270</v>
       </c>
@@ -4450,7 +4472,7 @@
         <v>93</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
@@ -4553,7 +4575,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>281</v>
       </c>
@@ -4572,7 +4594,7 @@
         <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4675,7 +4697,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>291</v>
       </c>
@@ -4797,7 +4819,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>303</v>
       </c>
@@ -4919,7 +4941,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>311</v>
       </c>
@@ -5039,7 +5061,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>321</v>
       </c>
@@ -5161,7 +5183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>330</v>
       </c>
@@ -5281,7 +5303,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>339</v>
       </c>
@@ -5401,7 +5423,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>348</v>
       </c>
@@ -5523,7 +5545,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>357</v>
       </c>
@@ -5641,7 +5663,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>363</v>
       </c>
@@ -5761,7 +5783,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>366</v>
       </c>
@@ -5883,7 +5905,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>371</v>
       </c>
@@ -6001,7 +6023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>378</v>
       </c>
@@ -6119,7 +6141,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>382</v>
       </c>
@@ -6241,7 +6263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>391</v>
       </c>
@@ -6363,7 +6385,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>398</v>
       </c>
@@ -6483,7 +6505,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>404</v>
       </c>
@@ -6601,7 +6623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>408</v>
       </c>
@@ -6721,7 +6743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>415</v>
       </c>
@@ -6841,7 +6863,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>421</v>
       </c>
@@ -6963,7 +6985,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>428</v>
       </c>
@@ -7081,7 +7103,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>429</v>
       </c>
@@ -7201,7 +7223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>430</v>
       </c>
@@ -7323,7 +7345,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>431</v>
       </c>
@@ -7445,7 +7467,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>436</v>
       </c>
@@ -7567,7 +7589,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>440</v>
       </c>
@@ -7665,7 +7687,7 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>105</v>
@@ -7689,12 +7711,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7778,7 +7800,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7811,12 +7833,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7842,10 +7864,10 @@
         <v>83</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>352</v>
@@ -7900,7 +7922,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7934,6 +7956,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AP51">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI50">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>